--- a/Files/Tabellenboek.xlsx
+++ b/Files/Tabellenboek.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="154">
   <si>
     <t xml:space="preserve">Wat zie je in onze tabellen?
 </t>
@@ -89,91 +89,97 @@
     <t>1. Dit is een normale SR Vraag</t>
   </si>
   <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Properties (%)</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>Antwoord 1</t>
+  </si>
+  <si>
+    <t>Antwoord 2</t>
+  </si>
+  <si>
+    <t>Antwoord 3</t>
+  </si>
+  <si>
+    <t>Antwoord 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwoord 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwoord 2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwoord 3   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwoord 4    </t>
+  </si>
+  <si>
+    <t>Anders, namelijk</t>
+  </si>
+  <si>
+    <t>(N)</t>
+  </si>
+  <si>
+    <t>Antwoord 1 (A)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (B)</t>
+  </si>
+  <si>
+    <t>Antwoord 2 (B)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (C)</t>
+  </si>
+  <si>
+    <t>Antwoord 3 (C)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (D)</t>
+  </si>
+  <si>
+    <t>Antwoord 4 (D)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (E)</t>
+  </si>
+  <si>
+    <t>Antwoord 1  (E)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (F)</t>
+  </si>
+  <si>
+    <t>Antwoord 2   (F)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (G)</t>
+  </si>
+  <si>
+    <t>Antwoord 3    (G)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (H)</t>
+  </si>
+  <si>
+    <t>Antwoord 4     (H)</t>
+  </si>
+  <si>
+    <t>Anders, namelijk (I)</t>
+  </si>
+  <si>
     <t>2. Dit is een SR Vraag + Anders, namelijk</t>
-  </si>
-  <si>
-    <t>Properties (%)</t>
-  </si>
-  <si>
-    <t>Totaal</t>
-  </si>
-  <si>
-    <t>Antwoord 1</t>
-  </si>
-  <si>
-    <t>Antwoord 2</t>
-  </si>
-  <si>
-    <t>Antwoord 3</t>
-  </si>
-  <si>
-    <t>Antwoord 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwoord 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwoord 2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwoord 3   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwoord 4    </t>
-  </si>
-  <si>
-    <t>Anders, namelijk</t>
-  </si>
-  <si>
-    <t>(N)</t>
-  </si>
-  <si>
-    <t>Antwoord 1 (A)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (B)</t>
-  </si>
-  <si>
-    <t>Antwoord 2 (B)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (C)</t>
-  </si>
-  <si>
-    <t>Antwoord 3 (C)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (D)</t>
-  </si>
-  <si>
-    <t>Antwoord 4 (D)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (E)</t>
-  </si>
-  <si>
-    <t>Antwoord 1  (E)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (F)</t>
-  </si>
-  <si>
-    <t>Antwoord 2   (F)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (G)</t>
-  </si>
-  <si>
-    <t>Antwoord 3    (G)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (H)</t>
-  </si>
-  <si>
-    <t>Antwoord 4     (H)</t>
-  </si>
-  <si>
-    <t>Anders, namelijk (I)</t>
   </si>
   <si>
     <t>3. Dit is een normale SR Vraag met Top2 en Bot2</t>
@@ -553,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,7 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF46B6DF"/>
+        <fgColor rgb="FF537F8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76B5C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +661,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="double">
+        <color rgb="FFFF0000"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -654,7 +674,9 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="double">
+        <color rgb="FFFF0000"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -673,8 +695,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -684,13 +706,13 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,7 +1357,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="3" max="21" width="12.7109375" customWidth="1"/>
+    <col min="3" max="21" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1343,13 +1365,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -1358,42 +1380,42 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9">
         <v>0.4285714285714285</v>
@@ -1428,7 +1450,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9">
         <v>0.4285714285714285</v>
@@ -1463,7 +1485,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="9">
         <v>0.1428571428571428</v>
@@ -1498,7 +1520,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -1533,7 +1555,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="12">
         <v>7</v>
@@ -1571,13 +1593,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1586,42 +1608,42 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="9">
         <v>0.4285714285714285</v>
@@ -1638,7 +1660,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9">
         <v>0.4285714285714285</v>
@@ -1655,7 +1677,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9">
         <v>0.1428571428571428</v>
@@ -1672,7 +1694,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -1689,7 +1711,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="12">
         <v>7</v>
@@ -1706,16 +1728,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1724,42 +1746,42 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -1794,7 +1816,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="9">
         <v>0.1428571428571428</v>
@@ -1829,7 +1851,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9">
         <v>0.4285714285714285</v>
@@ -1864,7 +1886,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="9">
         <v>0</v>
@@ -1899,7 +1921,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="9">
         <v>0.4285714285714285</v>
@@ -1934,7 +1956,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="12">
         <v>7</v>
@@ -1969,16 +1991,16 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1987,42 +2009,42 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="9">
         <v>0</v>
@@ -2039,7 +2061,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="9">
         <v>0.1428571428571428</v>
@@ -2056,7 +2078,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="9">
         <v>0.4285714285714285</v>
@@ -2073,7 +2095,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="9">
         <v>0</v>
@@ -2090,7 +2112,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="9">
         <v>0.4285714285714285</v>
@@ -2107,7 +2129,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="12">
         <v>7</v>
@@ -2124,16 +2146,16 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2142,42 +2164,42 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="9">
         <v>0</v>
@@ -2212,7 +2234,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="9">
         <v>0.2857142857142857</v>
@@ -2247,7 +2269,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="9">
         <v>0.1428571428571428</v>
@@ -2282,7 +2304,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="9">
         <v>0</v>
@@ -2317,7 +2339,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="9">
         <v>0.5714285714285714</v>
@@ -2352,7 +2374,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" s="12">
         <v>7</v>
@@ -2387,16 +2409,16 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -2405,42 +2427,42 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46" s="9">
         <v>0</v>
@@ -2457,7 +2479,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="9">
         <v>0.2857142857142857</v>
@@ -2474,7 +2496,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" s="9">
         <v>0.1428571428571428</v>
@@ -2491,7 +2513,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="9">
         <v>0</v>
@@ -2508,7 +2530,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="9">
         <v>0.5714285714285714</v>
@@ -2525,7 +2547,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" s="12">
         <v>7</v>
@@ -2542,16 +2564,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -2560,42 +2582,42 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" s="9">
         <v>0.2857142857142857</v>
@@ -2630,7 +2652,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" s="9">
         <v>0.5714285714285714</v>
@@ -2665,7 +2687,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" s="12">
         <v>7</v>
@@ -2700,16 +2722,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -2718,42 +2740,42 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B61" s="9">
         <v>0.2857142857142857</v>
@@ -2770,7 +2792,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B62" s="9">
         <v>0.5714285714285714</v>
@@ -2787,7 +2809,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" s="12">
         <v>7</v>
@@ -2804,16 +2826,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -2822,42 +2844,42 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B67" s="9">
         <v>0.2857142857142857</v>
@@ -2892,7 +2914,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B68" s="9">
         <v>0.1428571428571428</v>
@@ -2927,7 +2949,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B69" s="9">
         <v>0.5714285714285714</v>
@@ -2962,7 +2984,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B70" s="14">
         <v>-29</v>
@@ -2997,7 +3019,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" s="12">
         <v>7</v>
@@ -3032,16 +3054,16 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -3050,42 +3072,42 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B75" s="9">
         <v>0.4285714285714285</v>
@@ -3120,7 +3142,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B76" s="9">
         <v>0</v>
@@ -3155,7 +3177,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B77" s="9">
         <v>0.5714285714285714</v>
@@ -3190,7 +3212,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B78" s="12">
         <v>7</v>
@@ -3225,16 +3247,16 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -3243,42 +3265,42 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B82" s="14">
         <v>5.6</v>
@@ -3313,7 +3335,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B83" s="12">
         <v>7</v>
@@ -3348,16 +3370,16 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -3366,42 +3388,42 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" s="9">
         <v>0</v>
@@ -3436,7 +3458,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B88" s="9">
         <v>0.4285714285714285</v>
@@ -3471,7 +3493,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B89" s="9">
         <v>0.4285714285714285</v>
@@ -3506,7 +3528,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B90" s="9">
         <v>0.7142857142857143</v>
@@ -3541,7 +3563,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B91" s="12">
         <v>7</v>
@@ -3576,16 +3598,16 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -3594,42 +3616,42 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B95" s="9">
         <v>0</v>
@@ -3646,7 +3668,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B96" s="9">
         <v>0.4285714285714285</v>
@@ -3663,7 +3685,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B97" s="9">
         <v>0.4285714285714285</v>
@@ -3680,7 +3702,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B98" s="9">
         <v>0.7142857142857143</v>
@@ -3697,7 +3719,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B99" s="12">
         <v>7</v>
@@ -3714,16 +3736,16 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -3732,42 +3754,42 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B103" s="9">
         <v>0.1428571428571428</v>
@@ -3802,7 +3824,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B104" s="9">
         <v>0</v>
@@ -3837,7 +3859,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B105" s="9">
         <v>0.2857142857142857</v>
@@ -3872,7 +3894,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B106" s="9">
         <v>0.5714285714285714</v>
@@ -3907,7 +3929,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B107" s="9">
         <v>0.4285714285714285</v>
@@ -3942,7 +3964,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B108" s="9">
         <v>0.2857142857142857</v>
@@ -3977,7 +3999,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B109" s="12">
         <v>7</v>
@@ -4012,16 +4034,16 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -4030,42 +4052,42 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113" s="9">
         <v>0.1428571428571428</v>
@@ -4082,7 +4104,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B114" s="9">
         <v>0</v>
@@ -4099,7 +4121,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B115" s="9">
         <v>0.2857142857142857</v>
@@ -4116,7 +4138,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B116" s="9">
         <v>0.5714285714285714</v>
@@ -4133,7 +4155,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B117" s="9">
         <v>0.4285714285714285</v>
@@ -4150,7 +4172,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B118" s="9">
         <v>0.2857142857142857</v>
@@ -4167,7 +4189,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B119" s="12">
         <v>7</v>
@@ -4184,16 +4206,16 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -4202,42 +4224,42 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B123" s="9">
         <v>0.2857142857142857</v>
@@ -4272,7 +4294,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B124" s="9">
         <v>0.2857142857142857</v>
@@ -4307,7 +4329,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B125" s="9">
         <v>0.1428571428571428</v>
@@ -4342,7 +4364,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B126" s="9">
         <v>0.4285714285714285</v>
@@ -4377,7 +4399,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B127" s="9">
         <v>0.4285714285714285</v>
@@ -4412,7 +4434,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B128" s="12">
         <v>7</v>
@@ -4447,16 +4469,16 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -4465,42 +4487,42 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B132" s="9">
         <v>0.2857142857142857</v>
@@ -4517,7 +4539,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B133" s="9">
         <v>0.2857142857142857</v>
@@ -4534,7 +4556,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B134" s="9">
         <v>0.1428571428571428</v>
@@ -4551,7 +4573,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B135" s="9">
         <v>0.4285714285714285</v>
@@ -4568,7 +4590,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B136" s="9">
         <v>0.4285714285714285</v>
@@ -4585,7 +4607,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B137" s="12">
         <v>7</v>
@@ -4602,16 +4624,16 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -4620,42 +4642,42 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B141" s="9">
         <v>0</v>
@@ -4690,7 +4712,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B142" s="9">
         <v>0</v>
@@ -4725,7 +4747,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B143" s="9">
         <v>0</v>
@@ -4760,7 +4782,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B144" s="9">
         <v>0</v>
@@ -4795,7 +4817,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B145" s="9">
         <v>0</v>
@@ -4830,7 +4852,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B146" s="12">
         <v>7</v>
@@ -4865,16 +4887,16 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -4883,42 +4905,42 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B150" s="9">
         <v>0</v>
@@ -4935,7 +4957,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B151" s="9">
         <v>0</v>
@@ -4952,7 +4974,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B152" s="9">
         <v>0</v>
@@ -4969,7 +4991,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B153" s="9">
         <v>0</v>
@@ -4986,7 +5008,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B154" s="9">
         <v>0</v>
@@ -5003,7 +5025,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B155" s="12">
         <v>7</v>
@@ -5020,16 +5042,16 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -5038,42 +5060,42 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B159" s="9">
         <v>0</v>
@@ -5108,7 +5130,7 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B160" s="9">
         <v>0.1428571428571428</v>
@@ -5143,7 +5165,7 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B161" s="9">
         <v>0.1428571428571428</v>
@@ -5178,7 +5200,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B162" s="9">
         <v>0</v>
@@ -5213,7 +5235,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B163" s="9">
         <v>0</v>
@@ -5248,7 +5270,7 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B164" s="9">
         <v>0.7142857142857143</v>
@@ -5283,7 +5305,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B165" s="12">
         <v>7</v>
@@ -5318,16 +5340,16 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -5336,42 +5358,42 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B169" s="9">
         <v>0</v>
@@ -5388,7 +5410,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B170" s="9">
         <v>0.1428571428571428</v>
@@ -5405,7 +5427,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B171" s="9">
         <v>0.1428571428571428</v>
@@ -5422,7 +5444,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B172" s="9">
         <v>0</v>
@@ -5439,7 +5461,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B173" s="9">
         <v>0</v>
@@ -5456,7 +5478,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B174" s="9">
         <v>0.7142857142857143</v>
@@ -5473,7 +5495,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B175" s="12">
         <v>7</v>
@@ -5490,16 +5512,16 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
@@ -5508,42 +5530,42 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B179" s="9">
         <v>0.2857142857142857</v>
@@ -5578,7 +5600,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B180" s="9">
         <v>0.1428571428571428</v>
@@ -5613,7 +5635,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B181" s="9">
         <v>0.2857142857142857</v>
@@ -5648,7 +5670,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B182" s="9">
         <v>0.2857142857142857</v>
@@ -5683,7 +5705,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B183" s="9">
         <v>0</v>
@@ -5718,7 +5740,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B184" s="12">
         <v>7</v>
@@ -5753,16 +5775,16 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
@@ -5771,42 +5793,42 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B188" s="9">
         <v>0.2857142857142857</v>
@@ -5823,7 +5845,7 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B189" s="9">
         <v>0.1428571428571428</v>
@@ -5840,7 +5862,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B190" s="9">
         <v>0.2857142857142857</v>
@@ -5857,7 +5879,7 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B191" s="9">
         <v>0.2857142857142857</v>
@@ -5874,7 +5896,7 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B192" s="9">
         <v>0</v>
@@ -5891,7 +5913,7 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B193" s="12">
         <v>7</v>
@@ -5908,16 +5930,16 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
@@ -5926,42 +5948,42 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B197" s="9">
         <v>0.1428571428571428</v>
@@ -5996,7 +6018,7 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B198" s="9">
         <v>0</v>
@@ -6031,7 +6053,7 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B199" s="9">
         <v>0.5714285714285714</v>
@@ -6066,7 +6088,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B200" s="9">
         <v>0.1428571428571428</v>
@@ -6101,7 +6123,7 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B201" s="9">
         <v>0.1428571428571428</v>
@@ -6136,7 +6158,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B202" s="12">
         <v>7</v>
@@ -6171,16 +6193,16 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
@@ -6189,42 +6211,42 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B206" s="9">
         <v>0.1428571428571428</v>
@@ -6241,7 +6263,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B207" s="9">
         <v>0</v>
@@ -6258,7 +6280,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B208" s="9">
         <v>0.5714285714285714</v>
@@ -6275,7 +6297,7 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B209" s="9">
         <v>0.1428571428571428</v>
@@ -6292,7 +6314,7 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B210" s="9">
         <v>0.1428571428571428</v>
@@ -6309,7 +6331,7 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B211" s="12">
         <v>7</v>
@@ -6326,16 +6348,16 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
@@ -6344,42 +6366,42 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B215" s="9">
         <v>0.1428571428571428</v>
@@ -6414,7 +6436,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B216" s="9">
         <v>0</v>
@@ -6449,7 +6471,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B217" s="9">
         <v>0.1428571428571428</v>
@@ -6484,7 +6506,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B218" s="9">
         <v>0.2857142857142857</v>
@@ -6519,7 +6541,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B219" s="9">
         <v>0.4285714285714285</v>
@@ -6554,7 +6576,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B220" s="12">
         <v>7</v>
@@ -6589,16 +6611,16 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
@@ -6607,42 +6629,42 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B224" s="9">
         <v>0.1428571428571428</v>
@@ -6659,7 +6681,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B225" s="9">
         <v>0</v>
@@ -6676,7 +6698,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B226" s="9">
         <v>0.1428571428571428</v>
@@ -6693,7 +6715,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B227" s="9">
         <v>0.2857142857142857</v>
@@ -6710,7 +6732,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B228" s="9">
         <v>0.4285714285714285</v>
@@ -6727,7 +6749,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B229" s="12">
         <v>7</v>
@@ -6744,16 +6766,16 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
@@ -6762,42 +6784,42 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B233" s="9">
         <v>0.1428571428571428</v>
@@ -6832,7 +6854,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B234" s="9">
         <v>0.2857142857142857</v>
@@ -6867,7 +6889,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B235" s="9">
         <v>0.4285714285714285</v>
@@ -6902,7 +6924,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B236" s="9">
         <v>0.1428571428571428</v>
@@ -6937,7 +6959,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B237" s="12">
         <v>7</v>
@@ -6972,16 +6994,16 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
@@ -6990,42 +7012,42 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B241" s="9">
         <v>0.1428571428571428</v>
@@ -7042,7 +7064,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B242" s="9">
         <v>0.2857142857142857</v>
@@ -7059,7 +7081,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B243" s="9">
         <v>0.4285714285714285</v>
@@ -7076,7 +7098,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B244" s="9">
         <v>0.1428571428571428</v>
@@ -7093,7 +7115,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B245" s="12">
         <v>7</v>
@@ -7110,16 +7132,16 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
       <c r="G247" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
@@ -7128,42 +7150,42 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B249" s="9">
         <v>0.1428571428571428</v>
@@ -7198,7 +7220,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B250" s="9">
         <v>0.5714285714285714</v>
@@ -7233,7 +7255,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B251" s="9">
         <v>0.2857142857142857</v>
@@ -7268,7 +7290,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B252" s="9">
         <v>0</v>
@@ -7303,7 +7325,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B253" s="12">
         <v>7</v>
@@ -7338,16 +7360,16 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
       <c r="G255" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
@@ -7356,42 +7378,42 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K256" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B257" s="9">
         <v>0.1428571428571428</v>
@@ -7408,7 +7430,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B258" s="9">
         <v>0.5714285714285714</v>
@@ -7425,7 +7447,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B259" s="9">
         <v>0.2857142857142857</v>
@@ -7442,7 +7464,7 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B260" s="9">
         <v>0</v>
@@ -7459,7 +7481,7 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B261" s="12">
         <v>7</v>
@@ -7476,16 +7498,16 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
@@ -7494,42 +7516,42 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B265" s="9">
         <v>0.2857142857142857</v>
@@ -7564,7 +7586,7 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B266" s="9">
         <v>0</v>
@@ -7599,7 +7621,7 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B267" s="9">
         <v>0.2857142857142857</v>
@@ -7634,7 +7656,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B268" s="9">
         <v>0.4285714285714285</v>
@@ -7669,7 +7691,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B269" s="12">
         <v>7</v>
@@ -7704,16 +7726,16 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
@@ -7722,42 +7744,42 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J272" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K272" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B273" s="9">
         <v>0.2857142857142857</v>
@@ -7774,7 +7796,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B274" s="9">
         <v>0</v>
@@ -7791,7 +7813,7 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B275" s="9">
         <v>0.2857142857142857</v>
@@ -7808,7 +7830,7 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B276" s="9">
         <v>0.4285714285714285</v>
@@ -7825,7 +7847,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B277" s="12">
         <v>7</v>
@@ -7842,16 +7864,16 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
@@ -7860,42 +7882,42 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H280" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I280" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J280" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K280" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B281" s="9">
         <v>0.5714285714285714</v>
@@ -7930,7 +7952,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B282" s="9">
         <v>0.1428571428571428</v>
@@ -7965,7 +7987,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B283" s="9">
         <v>0.2857142857142857</v>
@@ -8000,7 +8022,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B284" s="12">
         <v>7</v>
@@ -8035,16 +8057,16 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
@@ -8053,42 +8075,42 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J287" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K287" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B288" s="14">
         <v>3.7</v>
@@ -8123,7 +8145,7 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B289" s="12">
         <v>7</v>
@@ -8158,16 +8180,16 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
@@ -8176,42 +8198,42 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H292" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J292" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K292" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B293" s="9">
         <v>0.5714285714285714</v>
@@ -8246,7 +8268,7 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B294" s="9">
         <v>0.1428571428571428</v>
@@ -8281,7 +8303,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B295" s="9">
         <v>0.2857142857142857</v>
@@ -8316,7 +8338,7 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B296" s="12">
         <v>7</v>
@@ -8351,16 +8373,16 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
@@ -8369,42 +8391,42 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I299" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J299" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K299" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B300" s="14">
         <v>5.6</v>
@@ -8439,7 +8461,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B301" s="12">
         <v>7</v>
@@ -8474,16 +8496,16 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
       <c r="G303" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
@@ -8492,42 +8514,42 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H304" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J304" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K304" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B305" s="9">
         <v>0.2857142857142857</v>
@@ -8562,7 +8584,7 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B306" s="9">
         <v>0.4285714285714285</v>
@@ -8597,7 +8619,7 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B307" s="9">
         <v>0.2857142857142857</v>
@@ -8632,7 +8654,7 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B308" s="12">
         <v>7</v>
@@ -8667,16 +8689,16 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
@@ -8685,42 +8707,42 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H311" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I311" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J311" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K311" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B312" s="14">
         <v>6.3</v>
@@ -8755,7 +8777,7 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B313" s="12">
         <v>7</v>
@@ -8790,16 +8812,16 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
       <c r="G315" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
@@ -8808,37 +8830,37 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H316" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I316" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J316" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K316" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -8983,7 +9005,7 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B321" s="12">
         <v>7</v>
@@ -9018,16 +9040,16 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
       <c r="G323" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
@@ -9036,37 +9058,37 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I324" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J324" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K324" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -9139,7 +9161,7 @@
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B329" s="12">
         <v>7</v>
@@ -9156,16 +9178,16 @@
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
       <c r="G331" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
@@ -9174,42 +9196,42 @@
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H332" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I332" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J332" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K332" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B333" s="14">
         <v>7.3</v>
@@ -9244,7 +9266,7 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B334" s="12">
         <v>7</v>
@@ -9279,16 +9301,16 @@
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
@@ -9297,37 +9319,37 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H337" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I337" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J337" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K337" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -9402,7 +9424,7 @@
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B340" s="12">
         <v>3</v>
@@ -9437,16 +9459,16 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
       <c r="G342" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
@@ -9455,37 +9477,37 @@
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H343" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I343" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J343" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K343" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -9524,7 +9546,7 @@
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B346" s="12">
         <v>3</v>
@@ -9541,16 +9563,16 @@
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
@@ -9559,42 +9581,42 @@
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H349" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I349" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J349" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K349" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B350" s="14">
         <v>5</v>
@@ -9629,7 +9651,7 @@
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B351" s="12">
         <v>3</v>
@@ -9664,16 +9686,16 @@
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
       <c r="G353" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
@@ -9682,37 +9704,37 @@
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H354" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I354" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J354" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K354" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -9787,7 +9809,7 @@
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B357" s="12">
         <v>7</v>
@@ -9822,16 +9844,16 @@
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
       <c r="G359" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
@@ -9840,37 +9862,37 @@
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H360" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I360" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J360" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K360" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -9909,7 +9931,7 @@
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B363" s="12">
         <v>7</v>
@@ -9926,16 +9948,16 @@
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
       <c r="G365" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
@@ -9944,37 +9966,37 @@
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H366" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I366" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J366" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K366" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -10014,7 +10036,7 @@
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B368" s="12">
         <v>7</v>
@@ -10049,16 +10071,16 @@
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
       <c r="G370" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
@@ -10067,37 +10089,37 @@
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H371" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I371" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J371" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K371" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -10119,7 +10141,7 @@
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B373" s="12">
         <v>7</v>
@@ -10136,16 +10158,16 @@
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
       <c r="G375" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
@@ -10154,37 +10176,37 @@
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G376" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H376" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I376" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J376" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K376" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -10294,7 +10316,7 @@
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B380" s="12">
         <v>7</v>
@@ -10329,16 +10351,16 @@
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
       <c r="G382" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
@@ -10347,37 +10369,37 @@
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H383" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I383" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J383" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K383" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -10433,7 +10455,7 @@
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B387" s="12">
         <v>7</v>
@@ -10450,16 +10472,16 @@
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
       <c r="G389" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
@@ -10468,42 +10490,42 @@
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H390" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I390" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J390" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K390" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B391" s="14">
         <v>2.3</v>
@@ -10538,7 +10560,7 @@
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B392" s="12">
         <v>7</v>
@@ -10573,16 +10595,16 @@
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
       <c r="G394" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
@@ -10591,37 +10613,37 @@
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G395" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H395" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I395" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J395" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K395" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -10661,7 +10683,7 @@
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B397" s="12">
         <v>7</v>
@@ -10696,16 +10718,16 @@
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
       <c r="G399" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
@@ -10714,37 +10736,37 @@
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G400" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H400" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I400" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J400" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K400" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -10766,7 +10788,7 @@
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B402" s="12">
         <v>7</v>
@@ -10783,16 +10805,16 @@
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
       <c r="G404" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
@@ -10801,37 +10823,37 @@
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G405" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H405" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I405" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J405" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K405" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -10976,7 +10998,7 @@
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B410" s="12">
         <v>7</v>
@@ -11011,16 +11033,16 @@
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
       <c r="G412" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
@@ -11029,37 +11051,37 @@
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E413" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F413" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G413" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H413" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I413" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J413" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K413" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -11132,7 +11154,7 @@
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B418" s="12">
         <v>7</v>
@@ -11149,16 +11171,16 @@
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
       <c r="G420" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
@@ -11167,42 +11189,42 @@
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F421" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G421" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H421" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I421" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J421" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K421" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B422" s="14">
         <v>2.4</v>
@@ -11237,7 +11259,7 @@
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B423" s="12">
         <v>7</v>
@@ -11272,16 +11294,16 @@
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
       <c r="G425" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
@@ -11290,37 +11312,37 @@
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E426" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F426" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H426" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K426" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -11360,7 +11382,7 @@
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B428" s="12">
         <v>7</v>
@@ -11395,16 +11417,16 @@
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
       <c r="G430" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
@@ -11413,37 +11435,37 @@
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E431" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F431" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G431" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H431" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I431" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J431" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K431" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -11465,7 +11487,7 @@
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B433" s="12">
         <v>7</v>
@@ -11482,16 +11504,16 @@
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
       <c r="G435" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
@@ -11500,37 +11522,37 @@
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E436" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F436" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G436" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H436" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I436" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J436" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K436" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -11640,7 +11662,7 @@
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B440" s="12">
         <v>7</v>
@@ -11675,16 +11697,16 @@
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
       <c r="G442" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
@@ -11693,37 +11715,37 @@
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G443" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H443" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I443" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J443" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K443" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -11779,7 +11801,7 @@
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B447" s="12">
         <v>7</v>
@@ -11796,16 +11818,16 @@
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
       <c r="G449" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
@@ -11814,42 +11836,42 @@
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G450" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H450" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I450" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J450" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K450" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B451" s="14">
         <v>2.9</v>
@@ -11884,7 +11906,7 @@
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B452" s="12">
         <v>7</v>
@@ -11919,16 +11941,16 @@
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
       <c r="G454" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
@@ -11937,37 +11959,37 @@
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G455" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H455" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I455" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J455" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K455" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -12042,7 +12064,7 @@
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B458" s="12">
         <v>7</v>
@@ -12077,16 +12099,16 @@
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
       <c r="G460" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
@@ -12095,37 +12117,37 @@
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G461" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H461" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I461" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J461" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K461" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -12164,7 +12186,7 @@
     </row>
     <row r="464" spans="1:11">
       <c r="A464" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B464" s="12">
         <v>7</v>
@@ -12181,16 +12203,16 @@
     </row>
     <row r="466" spans="1:11">
       <c r="A466" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
       <c r="G466" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
@@ -12199,37 +12221,37 @@
     </row>
     <row r="467" spans="1:11">
       <c r="A467" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G467" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H467" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I467" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J467" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K467" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="468" spans="1:11">
@@ -12339,7 +12361,7 @@
     </row>
     <row r="471" spans="1:11">
       <c r="A471" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B471" s="12">
         <v>6</v>
@@ -12374,16 +12396,16 @@
     </row>
     <row r="473" spans="1:11">
       <c r="A473" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
       <c r="G473" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
@@ -12392,37 +12414,37 @@
     </row>
     <row r="474" spans="1:11">
       <c r="A474" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E474" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G474" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H474" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I474" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J474" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K474" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="475" spans="1:11">
@@ -12478,7 +12500,7 @@
     </row>
     <row r="478" spans="1:11">
       <c r="A478" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B478" s="12">
         <v>6</v>
@@ -12495,16 +12517,16 @@
     </row>
     <row r="480" spans="1:11">
       <c r="A480" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
       <c r="G480" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
@@ -12513,42 +12535,42 @@
     </row>
     <row r="481" spans="1:11">
       <c r="A481" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E481" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G481" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H481" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I481" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J481" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K481" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="482" spans="1:11">
       <c r="A482" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B482" s="14">
         <v>2.2</v>
@@ -12583,7 +12605,7 @@
     </row>
     <row r="483" spans="1:11">
       <c r="A483" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B483" s="12">
         <v>6</v>
@@ -12618,16 +12640,16 @@
     </row>
     <row r="485" spans="1:11">
       <c r="A485" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
       <c r="G485" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
@@ -12636,37 +12658,37 @@
     </row>
     <row r="486" spans="1:11">
       <c r="A486" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E486" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G486" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H486" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I486" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J486" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K486" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="487" spans="1:11">
@@ -12811,7 +12833,7 @@
     </row>
     <row r="491" spans="1:11">
       <c r="A491" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B491" s="12">
         <v>7</v>
@@ -12846,16 +12868,16 @@
     </row>
     <row r="493" spans="1:11">
       <c r="A493" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
       <c r="G493" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
@@ -12864,37 +12886,37 @@
     </row>
     <row r="494" spans="1:11">
       <c r="A494" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E494" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G494" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H494" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I494" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J494" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K494" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="495" spans="1:11">
@@ -12967,7 +12989,7 @@
     </row>
     <row r="499" spans="1:11">
       <c r="A499" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B499" s="12">
         <v>7</v>
@@ -12984,16 +13006,16 @@
     </row>
     <row r="501" spans="1:11">
       <c r="A501" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
       <c r="G501" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
@@ -13002,42 +13024,42 @@
     </row>
     <row r="502" spans="1:11">
       <c r="A502" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C502" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G502" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H502" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I502" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J502" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K502" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="503" spans="1:11">
       <c r="A503" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B503" s="14">
         <v>3</v>
@@ -13072,7 +13094,7 @@
     </row>
     <row r="504" spans="1:11">
       <c r="A504" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B504" s="12">
         <v>7</v>
@@ -13107,16 +13129,16 @@
     </row>
     <row r="506" spans="1:11">
       <c r="A506" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
       <c r="G506" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
@@ -13125,37 +13147,37 @@
     </row>
     <row r="507" spans="1:11">
       <c r="A507" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D507" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G507" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H507" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I507" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J507" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K507" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="508" spans="1:11">
@@ -13300,7 +13322,7 @@
     </row>
     <row r="512" spans="1:11">
       <c r="A512" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B512" s="12">
         <v>7</v>
@@ -13335,16 +13357,16 @@
     </row>
     <row r="514" spans="1:11">
       <c r="A514" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
       <c r="G514" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
@@ -13353,37 +13375,37 @@
     </row>
     <row r="515" spans="1:11">
       <c r="A515" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C515" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G515" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H515" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I515" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J515" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K515" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="516" spans="1:11">
@@ -13456,7 +13478,7 @@
     </row>
     <row r="520" spans="1:11">
       <c r="A520" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B520" s="12">
         <v>7</v>
@@ -13473,16 +13495,16 @@
     </row>
     <row r="522" spans="1:11">
       <c r="A522" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C522" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
       <c r="G522" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
@@ -13491,42 +13513,42 @@
     </row>
     <row r="523" spans="1:11">
       <c r="A523" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C523" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D523" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E523" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G523" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H523" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I523" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J523" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K523" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="524" spans="1:11">
       <c r="A524" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B524" s="14">
         <v>2.1</v>
@@ -13561,7 +13583,7 @@
     </row>
     <row r="525" spans="1:11">
       <c r="A525" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B525" s="12">
         <v>7</v>
@@ -13596,16 +13618,16 @@
     </row>
     <row r="527" spans="1:11">
       <c r="A527" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
       <c r="G527" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
@@ -13614,37 +13636,37 @@
     </row>
     <row r="528" spans="1:11">
       <c r="A528" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E528" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G528" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H528" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I528" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J528" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K528" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="529" spans="1:11">
@@ -13789,7 +13811,7 @@
     </row>
     <row r="533" spans="1:11">
       <c r="A533" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B533" s="12">
         <v>7</v>
@@ -13824,16 +13846,16 @@
     </row>
     <row r="535" spans="1:11">
       <c r="A535" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
       <c r="F535" s="5"/>
       <c r="G535" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H535" s="5"/>
       <c r="I535" s="5"/>
@@ -13842,37 +13864,37 @@
     </row>
     <row r="536" spans="1:11">
       <c r="A536" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C536" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E536" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G536" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H536" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I536" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J536" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K536" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="537" spans="1:11">
@@ -13945,7 +13967,7 @@
     </row>
     <row r="541" spans="1:11">
       <c r="A541" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B541" s="12">
         <v>7</v>
@@ -13962,16 +13984,16 @@
     </row>
     <row r="543" spans="1:11">
       <c r="A543" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
       <c r="G543" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H543" s="5"/>
       <c r="I543" s="5"/>
@@ -13980,42 +14002,42 @@
     </row>
     <row r="544" spans="1:11">
       <c r="A544" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C544" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E544" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G544" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H544" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I544" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J544" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K544" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="545" spans="1:11">
       <c r="A545" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B545" s="14">
         <v>4.9</v>
@@ -14050,7 +14072,7 @@
     </row>
     <row r="546" spans="1:11">
       <c r="A546" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B546" s="12">
         <v>7</v>
@@ -14255,234 +14277,234 @@
   <sheetData>
     <row r="1" spans="1:9" ht="50" customHeight="1">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Tabellenboek.xlsx
+++ b/Files/Tabellenboek.xlsx
@@ -89,10 +89,10 @@
     <t>1. Dit is een normale SR Vraag</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
+    <t>KV1</t>
+  </si>
+  <si>
+    <t>KV2</t>
   </si>
   <si>
     <t>Properties (%)</t>

--- a/Files/Tabellenboek.xlsx
+++ b/Files/Tabellenboek.xlsx
@@ -89,10 +89,10 @@
     <t>1. Dit is een normale SR Vraag</t>
   </si>
   <si>
-    <t>KV1</t>
-  </si>
-  <si>
-    <t>KV2</t>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
   </si>
   <si>
     <t>Properties (%)</t>
@@ -470,31 +470,31 @@
     <t>Test3</t>
   </si>
   <si>
-    <t>V1:    1. Dit is een normale SR Vraag</t>
-  </si>
-  <si>
-    <t>V2:    2. Dit is een SR Vraag + Anders, namelijk</t>
-  </si>
-  <si>
-    <t>OPEN2_5:    2. Dit is een SR Vraag + Anders, namelijk A:5</t>
-  </si>
-  <si>
-    <t>OPEN7_5:    Anders, namelijk:</t>
-  </si>
-  <si>
-    <t>OPEN8_5:    Anders, namelijk:</t>
-  </si>
-  <si>
-    <t>V18_A1:    18-1. Antwoord 1</t>
-  </si>
-  <si>
-    <t>V18_A2:    18-2. Antwoord 2</t>
-  </si>
-  <si>
-    <t>V18_A3:    18-3. Antwoord 3</t>
-  </si>
-  <si>
-    <t>V19:    19. Dit is een open vraag</t>
+    <t>V1:    . Dit is een normale SR Vraag</t>
+  </si>
+  <si>
+    <t>V2:    . Dit is een SR Vraag + Anders, namelijk</t>
+  </si>
+  <si>
+    <t>OPEN2_5:    . Dit is een SR Vraag + Anders, namelijk A:5</t>
+  </si>
+  <si>
+    <t>OPEN7_5:    nders, namelijk:</t>
+  </si>
+  <si>
+    <t>OPEN8_5:    nders, namelijk:</t>
+  </si>
+  <si>
+    <t>V18_A1:    8-1. Antwoord 1</t>
+  </si>
+  <si>
+    <t>V18_A2:    8-2. Antwoord 2</t>
+  </si>
+  <si>
+    <t>V18_A3:    8-3. Antwoord 3</t>
+  </si>
+  <si>
+    <t>V19:    9. Dit is een open vraag</t>
   </si>
 </sst>
 </file>
@@ -777,15 +777,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I8" totalsRowShown="0">
   <autoFilter ref="A1:I8"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="V1:    1. Dit is een normale SR Vraag"/>
-    <tableColumn id="2" name="V2:    2. Dit is een SR Vraag + Anders, namelijk"/>
-    <tableColumn id="3" name="OPEN2_5:    2. Dit is een SR Vraag + Anders, namelijk A:5"/>
-    <tableColumn id="4" name="OPEN7_5:    Anders, namelijk:"/>
-    <tableColumn id="5" name="OPEN8_5:    Anders, namelijk:"/>
-    <tableColumn id="6" name="V18_A1:    18-1. Antwoord 1"/>
-    <tableColumn id="7" name="V18_A2:    18-2. Antwoord 2"/>
-    <tableColumn id="8" name="V18_A3:    18-3. Antwoord 3"/>
-    <tableColumn id="9" name="V19:    19. Dit is een open vraag"/>
+    <tableColumn id="1" name="V1:    . Dit is een normale SR Vraag"/>
+    <tableColumn id="2" name="V2:    . Dit is een SR Vraag + Anders, namelijk"/>
+    <tableColumn id="3" name="OPEN2_5:    . Dit is een SR Vraag + Anders, namelijk A:5"/>
+    <tableColumn id="4" name="OPEN7_5:    nders, namelijk:"/>
+    <tableColumn id="5" name="OPEN8_5:    nders, namelijk:"/>
+    <tableColumn id="6" name="V18_A1:    8-1. Antwoord 1"/>
+    <tableColumn id="7" name="V18_A2:    8-2. Antwoord 2"/>
+    <tableColumn id="8" name="V18_A3:    8-3. Antwoord 3"/>
+    <tableColumn id="9" name="V19:    9. Dit is een open vraag"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
